--- a/biology/Zoologie/Dryade_couronnée/Dryade_couronnée.xlsx
+++ b/biology/Zoologie/Dryade_couronnée/Dryade_couronnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dryade_couronn%C3%A9e</t>
+          <t>Dryade_couronnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalurania colombica
 La Dryade couronnée (Thalurania colombica) est une espèce de colibris (famille des Trochilidae).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dryade_couronn%C3%A9e</t>
+          <t>Dryade_couronnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce présente un net dimorphisme sexuel. Le mâle mesure environ 10 cm de longueur, a un plumage essentiellement vert et bleu violet avec une queue très fourchue noir bleuté. La femelle mesure environ 9 cm de longueur et présente un plumage surtout vert avec la gorge et la poitrine gris pâle et la queue à peine fourchue sans traces de bleu violet mais avec les extrémités des rectrices externes blanches.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dryade_couronn%C3%A9e</t>
+          <t>Dryade_couronnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent au Belize, en Colombie, au Costa Rica, au Guatemala, au Honduras, au Nicaragua, au Panama et au Venezuela.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dryade_couronn%C3%A9e</t>
+          <t>Dryade_couronnée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes mais aussi les anciennes forêts lourdement dégradées, les plantations agricoles et les jardins ruraux.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dryade_couronn%C3%A9e</t>
+          <t>Dryade_couronnée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En période de reproduction, le mâle se nourrit dans la cime des arbres tandis que la femelle utilise les étages inférieurs[1], évitant ainsi une compétition alimentaire au sein du couple.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En période de reproduction, le mâle se nourrit dans la cime des arbres tandis que la femelle utilise les étages inférieurs, évitant ainsi une compétition alimentaire au sein du couple.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dryade_couronn%C3%A9e</t>
+          <t>Dryade_couronnée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,11 +656,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À partir de 1992, la sous-espèce Thalurania colombica fannyi est considérée comme une espèce à part entière, la Dryade de Fanny (Thalurania fannyi), principalement sur des différences de coloration de plumage sur le dessus de la tête et une aire de répartition distincte. Mais une étude de 2012 remet en cause les résultats de l'étude précédente, en montrant d'une part que l'aire de répartition de fannyi est plus large que supposée au préalable, et pas du tout distincte ; ensuite, qu'en Colombie, fannyi et combica s'hybrident, générant des individus aux traits intermédiaires ; enfin, que les femelles et les vocalisations ne sont pas discernables[2]. Il est donc probable que fannyi ne soit qu'une variation clinale[3]. Elle perd son statut d'espèce dans la version 3.4 (2013) de la classification de référence du Congrès ornithologique international et est réintégrée dans l'espèce Thalurania colombica.
-Sous-espèces
-D'après la classification de référence (version 10.1, 2020) du Congrès ornithologique international, cette espèce est constituée des huit sous-espèces suivantes (ordre phylogénique) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 1992, la sous-espèce Thalurania colombica fannyi est considérée comme une espèce à part entière, la Dryade de Fanny (Thalurania fannyi), principalement sur des différences de coloration de plumage sur le dessus de la tête et une aire de répartition distincte. Mais une étude de 2012 remet en cause les résultats de l'étude précédente, en montrant d'une part que l'aire de répartition de fannyi est plus large que supposée au préalable, et pas du tout distincte ; ensuite, qu'en Colombie, fannyi et combica s'hybrident, générant des individus aux traits intermédiaires ; enfin, que les femelles et les vocalisations ne sont pas discernables. Il est donc probable que fannyi ne soit qu'une variation clinale. Elle perd son statut d'espèce dans la version 3.4 (2013) de la classification de référence du Congrès ornithologique international et est réintégrée dans l'espèce Thalurania colombica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dryade_couronnée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryade_couronn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 10.1, 2020) du Congrès ornithologique international, cette espèce est constituée des huit sous-espèces suivantes (ordre phylogénique) :
 Thalurania colombica townsendi Ridgway, 1888 ;
 Thalurania colombica venusta (Gould, 1851) ;
 Thalurania colombica colombica (Bourcier, 1843) ;
